--- a/Controller/controller_V3_matlab/customer_inputs_MX_BEND_240_DEG.xlsx
+++ b/Controller/controller_V3_matlab/customer_inputs_MX_BEND_240_DEG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattl\Documents\Purdue\Fall 2025\ME 463\ME-463-Can-Crusher\Controller\controller_V3_matlab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BCB816E-C520-4BA2-9C63-A9DF7C9011AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7934DD83-30DA-4C62-9BB4-C8727A85494C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17964" windowHeight="11256" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
+    <workbookView xWindow="252" yWindow="2100" windowWidth="8952" windowHeight="11256" xr2:uid="{3A1ED538-D941-4692-8CDC-808B275BDBD0}"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Inputs" sheetId="1" r:id="rId1"/>
@@ -534,7 +534,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -617,7 +617,7 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>120</v>
+        <v>240</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -632,7 +632,7 @@
         <v>30</v>
       </c>
       <c r="C6">
-        <v>240</v>
+        <v>120</v>
       </c>
       <c r="D6">
         <v>60</v>
